--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF738DF-AFEA-4AEE-A135-EE0218418AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="Sheet2"/>
-    <sheet r:id="rId3" sheetId="3" name="Sheet3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -69,20 +75,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
       <family val="2"/>
     </font>
@@ -100,6 +105,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -110,12 +122,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf79646"/>
+        <fgColor rgb="FFF79646"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFa5a5a5"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,16 +141,16 @@
     </border>
     <border>
       <left style="double">
-        <color rgb="FF3f3f3f"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="double">
-        <color rgb="FF3f3f3f"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="double">
-        <color rgb="FF3f3f3f"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3f3f3f"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -153,175 +165,173 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Gallery">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Gallery">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="454545"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="DFDBD5"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="B71E42"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="DE478E"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="BC72F0"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="795FAF"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="586EA6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="6892A0"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="FA2B5C"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="BC658E"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Gallery">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Gill Sans MT" panose="020B0502020104020203"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Gill Sans MT" panose="020B0502020104020203"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Gallery">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -330,65 +340,64 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="54000"/>
+                <a:alpha val="100000"/>
+                <a:satMod val="105000"/>
+                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:tint val="78000"/>
+                <a:alpha val="92000"/>
+                <a:satMod val="109000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="104000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="69000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="88000"/>
                 <a:satMod val="130000"/>
+                <a:lumMod val="92000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:shade val="78000"/>
+                <a:satMod val="130000"/>
+                <a:lumMod val="92000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -397,41 +406,29 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="96000" sy="96000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="48000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="balanced" dir="t">
+              <a:rot lat="0" lon="0" rev="1080000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="38100" h="12700" prst="softRound"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -439,43 +436,21 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="80000"/>
+                <a:lumMod val="106000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
+                <a:shade val="80000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -488,143 +463,151 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Gallery" id="{BBFCD31E-59A1-489D-B089-A3EAD7CAE12E}" vid="{F5E91637-A7B6-4E27-B710-77DA7014EE1E}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" style="11" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="6.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="13" style="12" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="39.77734375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="7" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -632,14 +615,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -647,7 +630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF738DF-AFEA-4AEE-A135-EE0218418AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DAF856-F6CF-4291-AC51-112A1569F5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>S. No</t>
   </si>
@@ -57,19 +57,22 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Extra</t>
-  </si>
-  <si>
     <t>May. 29.2021</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>01hrs</t>
+  </si>
+  <si>
+    <t>03:00-08:30AM</t>
+  </si>
+  <si>
+    <t>03:00-04:00PM</t>
+  </si>
+  <si>
+    <t>Extras</t>
   </si>
 </sst>
 </file>
@@ -100,20 +103,20 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Cambria"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,12 +125,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF79646"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -165,42 +164,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,129 +484,101 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="13" style="12" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="39.77734375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="13" style="14" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="53.6640625" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="13">
+        <v>3</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="L2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DAF856-F6CF-4291-AC51-112A1569F5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B879729-D4E3-485E-9C3D-E16A99912370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>S. No</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>May. 29.2021</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -73,6 +70,33 @@
   </si>
   <si>
     <t>Extras</t>
+  </si>
+  <si>
+    <t>YES/0.5hrs</t>
+  </si>
+  <si>
+    <t>May.29.2021</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>5/LeetCode</t>
+  </si>
+  <si>
+    <t>Today was good. &lt;3</t>
+  </si>
+  <si>
+    <t>May.30.2021</t>
+  </si>
+  <si>
+    <t>03:00-04:30PM</t>
   </si>
 </sst>
 </file>
@@ -164,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,9 +210,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,100 +505,126 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16" style="14" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="19" style="14" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="13" style="14" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="14" customWidth="1"/>
-    <col min="13" max="13" width="53.6640625" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="6.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="19" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="11" style="13" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="13">
-        <v>3</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="L2" s="5" t="s">
-        <v>13</v>
+      <c r="E2" s="12">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="L3" s="15"/>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
+      <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B879729-D4E3-485E-9C3D-E16A99912370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EBDAFA-1B92-4B52-BDF9-1EB5454FB3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>S. No</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>01hrs</t>
-  </si>
-  <si>
     <t>03:00-08:30AM</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
     <t>YES/0.5hrs</t>
   </si>
   <si>
-    <t>May.29.2021</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -90,13 +81,28 @@
     <t>5/LeetCode</t>
   </si>
   <si>
-    <t>Today was good. &lt;3</t>
-  </si>
-  <si>
-    <t>May.30.2021</t>
-  </si>
-  <si>
     <t>03:00-04:30PM</t>
+  </si>
+  <si>
+    <t>2/Random</t>
+  </si>
+  <si>
+    <t>Today was good.</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>May.29.2022</t>
+  </si>
+  <si>
+    <t>May.30.2022</t>
+  </si>
+  <si>
+    <t>May.31.2022</t>
+  </si>
+  <si>
+    <t>Happy with CF Prob. Count.</t>
   </si>
 </sst>
 </file>
@@ -188,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,6 +236,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +517,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -560,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>10</v>
@@ -571,37 +580,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="12">
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -609,22 +618,45 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" s="11">
-        <v>3</v>
-      </c>
-      <c r="K3" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EBDAFA-1B92-4B52-BDF9-1EB5454FB3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947902E0-EBCC-46B8-94A2-ABDB0B2DFA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>S. No</t>
   </si>
@@ -63,9 +63,6 @@
     <t>03:00-04:00PM</t>
   </si>
   <si>
-    <t>Extras</t>
-  </si>
-  <si>
     <t>YES/0.5hrs</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Today was good.</t>
   </si>
   <si>
-    <t>NIL</t>
-  </si>
-  <si>
     <t>May.29.2022</t>
   </si>
   <si>
@@ -103,13 +97,28 @@
   </si>
   <si>
     <t>Happy with CF Prob. Count.</t>
+  </si>
+  <si>
+    <t>02:30-08:30AM</t>
+  </si>
+  <si>
+    <t>Sleep Hours</t>
+  </si>
+  <si>
+    <t>6.5hrs</t>
+  </si>
+  <si>
+    <t>07hrs</t>
+  </si>
+  <si>
+    <t>7.5hrs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +153,13 @@
       <name val="Gill Sans MT"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +253,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,7 +536,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -532,7 +551,7 @@
     <col min="8" max="8" width="26.109375" style="13" customWidth="1"/>
     <col min="9" max="9" width="16.5546875" style="13" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" style="13" customWidth="1"/>
-    <col min="11" max="11" width="11" style="13" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="13" customWidth="1"/>
     <col min="12" max="12" width="33.33203125" style="13" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="15"/>
   </cols>
@@ -569,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>10</v>
@@ -580,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>11</v>
@@ -592,25 +611,25 @@
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -618,37 +637,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="11">
         <v>5</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -656,7 +675,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947902E0-EBCC-46B8-94A2-ABDB0B2DFA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856B4ECC-6824-4079-8AD1-8294C5235545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>S. No</t>
   </si>
@@ -54,9 +54,15 @@
     <t>Acedamics</t>
   </si>
   <si>
+    <t>Sleep Hours</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
+    <t>May.29.2022</t>
+  </si>
+  <si>
     <t>03:00-08:30AM</t>
   </si>
   <si>
@@ -72,10 +78,19 @@
     <t>Binary Search</t>
   </si>
   <si>
+    <t>5/LeetCode</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>5/LeetCode</t>
+    <t>6.5hrs</t>
+  </si>
+  <si>
+    <t>Today was good.</t>
+  </si>
+  <si>
+    <t>May.30.2022</t>
   </si>
   <si>
     <t>03:00-04:30PM</t>
@@ -84,45 +99,45 @@
     <t>2/Random</t>
   </si>
   <si>
-    <t>Today was good.</t>
-  </si>
-  <si>
-    <t>May.29.2022</t>
-  </si>
-  <si>
-    <t>May.30.2022</t>
+    <t>07hrs</t>
+  </si>
+  <si>
+    <t>Happy with CF Prob. Count.</t>
   </si>
   <si>
     <t>May.31.2022</t>
   </si>
   <si>
-    <t>Happy with CF Prob. Count.</t>
-  </si>
-  <si>
     <t>02:30-08:30AM</t>
   </si>
   <si>
-    <t>Sleep Hours</t>
-  </si>
-  <si>
-    <t>6.5hrs</t>
-  </si>
-  <si>
-    <t>07hrs</t>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>1/HackerRank</t>
   </si>
   <si>
     <t>7.5hrs</t>
+  </si>
+  <si>
+    <t>Today's CF Contest.</t>
+  </si>
+  <si>
+    <t>May.01.2022</t>
+  </si>
+  <si>
+    <t>02:40-08:30AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Gill Sans MT"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -141,24 +156,15 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="Cambria"/>
+      <color rgb="FF000000"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Gill Sans MT"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -172,7 +178,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -210,53 +215,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -276,9 +280,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Gallery">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Gallery">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,24 +314,24 @@
         <a:srgbClr val="6892A0"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="FA2B5C"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="BC658E"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Gallery">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Gill Sans MT" panose="020B0502020104020203"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -353,16 +357,16 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Gill Sans MT" panose="020B0502020104020203"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -388,7 +392,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Gallery">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,64 +401,65 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="54000"/>
-                <a:alpha val="100000"/>
-                <a:satMod val="105000"/>
-                <a:lumMod val="110000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="78000"/>
-                <a:alpha val="92000"/>
-                <a:satMod val="109000"/>
-                <a:lumMod val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="110000"/>
-                <a:lumMod val="104000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="69000">
-              <a:schemeClr val="phClr">
-                <a:shade val="88000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
-                <a:lumMod val="92000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="78000"/>
-                <a:satMod val="130000"/>
-                <a:lumMod val="92000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -463,16 +468,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="96000" sy="96000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="48000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -480,12 +497,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="balanced" dir="t">
-              <a:rot lat="0" lon="0" rev="1080000"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="38100" h="12700" prst="softRound"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -493,21 +510,43 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="80000"/>
-                <a:lumMod val="106000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="80000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -520,11 +559,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Gallery" id="{BBFCD31E-59A1-489D-B089-A3EAD7CAE12E}" vid="{F5E91637-A7B6-4E27-B710-77DA7014EE1E}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -533,162 +567,201 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I13" sqref="I13:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16" style="13" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="19" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="13" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" style="13" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.33203125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>4</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="17">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>24</v>
+      <c r="K3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="17">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="18" t="s">
+      <c r="E4" s="17">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -705,7 +778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -720,7 +793,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856B4ECC-6824-4079-8AD1-8294C5235545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AABC770-030A-4E64-8BD6-6D2B19E2C2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Rules" sheetId="2" r:id="rId1"/>
+    <sheet name="Followed" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>S. No</t>
   </si>
@@ -39,18 +39,9 @@
     <t>Codeforces</t>
   </si>
   <si>
-    <t>Typing Practice</t>
-  </si>
-  <si>
-    <t>DSA</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
-    <t>Problems</t>
-  </si>
-  <si>
     <t>Acedamics</t>
   </si>
   <si>
@@ -72,15 +63,9 @@
     <t>YES/0.5hrs</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>Binary Search</t>
   </si>
   <si>
-    <t>5/LeetCode</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -96,9 +81,6 @@
     <t>03:00-04:30PM</t>
   </si>
   <si>
-    <t>2/Random</t>
-  </si>
-  <si>
     <t>07hrs</t>
   </si>
   <si>
@@ -114,9 +96,6 @@
     <t>NIL</t>
   </si>
   <si>
-    <t>1/HackerRank</t>
-  </si>
-  <si>
     <t>7.5hrs</t>
   </si>
   <si>
@@ -127,33 +106,70 @@
   </si>
   <si>
     <t>02:40-08:30AM</t>
+  </si>
+  <si>
+    <t>Today's CC Contest.</t>
+  </si>
+  <si>
+    <t>May.02.2022</t>
+  </si>
+  <si>
+    <t>03:00-07:00PM</t>
+  </si>
+  <si>
+    <t>7.4hrs</t>
+  </si>
+  <si>
+    <t>03:30-08:30AM</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Parctice/5</t>
+  </si>
+  <si>
+    <t>Practice/2</t>
+  </si>
+  <si>
+    <t>Practice/1</t>
+  </si>
+  <si>
+    <t>Wasted</t>
+  </si>
+  <si>
+    <t>02hrs</t>
+  </si>
+  <si>
+    <t>Final Exams</t>
+  </si>
+  <si>
+    <t>00hrs</t>
+  </si>
+  <si>
+    <t>Typing P.</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>03hrs</t>
+  </si>
+  <si>
+    <t>YouTube</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -166,6 +182,41 @@
       <color theme="1"/>
       <name val="Gill Sans MT"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -181,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -211,57 +262,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -277,6 +362,465 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40417A06-EE4A-D48B-3385-B9F28CBE1493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="15240"/>
+          <a:ext cx="16802100" cy="11163300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. Before 13.06.2022:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   a. 09:00AM-03:00PM            - Codeforces Problem solving</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   b. 03:00PM-4:30/05-00PM     - Nap Hours</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   c. 05:00PM-12:00AM            - Codeforces Problem solving</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   d. 08:30PM-09:00PM            -  Typing Practice</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   e.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12:00AM-03:00AM           -  DSA practice &amp; Learning (alternating days) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   f. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>03:00AM-08:30AM            -  Nap Hours</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. After 14.06.2022:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8688E874-66C6-C485-E3B6-4E4279D398F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="16809720" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>                                                                                                                Jai</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Shree Krishna</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,224 +1107,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.33203125" style="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="8">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="17">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="17">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="16" style="18" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="35.33203125" style="25" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AABC770-030A-4E64-8BD6-6D2B19E2C2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0B470D-9FB6-4F72-8A16-19428C0919E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>S. No</t>
   </si>
@@ -111,18 +111,9 @@
     <t>Today's CC Contest.</t>
   </si>
   <si>
-    <t>May.02.2022</t>
-  </si>
-  <si>
-    <t>03:00-07:00PM</t>
-  </si>
-  <si>
     <t>7.4hrs</t>
   </si>
   <si>
-    <t>03:30-08:30AM</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -157,6 +148,9 @@
   </si>
   <si>
     <t>YouTube</t>
+  </si>
+  <si>
+    <t>May.08.2022</t>
   </si>
 </sst>
 </file>
@@ -277,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,6 +341,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +484,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1. Before 13.06.2022:</a:t>
+            <a:t>1. Before 13.06.2022</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -673,6 +688,77 @@
             </a:rPr>
             <a:t>2. After 14.06.2022:</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>^NOTE: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Except Exam hours</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1128,10 +1214,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -1169,13 +1255,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>6</v>
@@ -1184,10 +1270,10 @@
         <v>7</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>8</v>
@@ -1216,7 +1302,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>14</v>
@@ -1225,8 +1311,9 @@
         <v>15</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L2" s="7"/>
       <c r="M2" s="22" t="s">
         <v>16</v>
       </c>
@@ -1254,7 +1341,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>14</v>
@@ -1263,8 +1350,9 @@
         <v>19</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L3" s="7"/>
       <c r="M3" s="22" t="s">
         <v>20</v>
       </c>
@@ -1292,7 +1380,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>14</v>
@@ -1301,10 +1389,10 @@
         <v>24</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>25</v>
@@ -1339,10 +1427,10 @@
         <v>14</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>7</v>
@@ -1352,23 +1440,30 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A6" s="5">
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="B7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>39</v>
+      <c r="B9" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0B470D-9FB6-4F72-8A16-19428C0919E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2B1E7C-218F-43B2-9899-3D3A3AF49CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>S. No</t>
   </si>
@@ -150,14 +150,17 @@
     <t>YouTube</t>
   </si>
   <si>
-    <t>May.08.2022</t>
+    <t>May.10.2022</t>
+  </si>
+  <si>
+    <t>Practice/3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +210,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -271,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,6 +367,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,7 +1256,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -1458,13 +1497,28 @@
       <c r="K7" s="29"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A9" s="5">
+    <row r="9" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="31" t="s">
         <v>42</v>
       </c>
+      <c r="C9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="G9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2B1E7C-218F-43B2-9899-3D3A3AF49CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4651FD-BAE9-4674-91B3-46FD4E1F27C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>S. No</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Practice/3</t>
+  </si>
+  <si>
+    <t>Contest, Inspite today's good!</t>
   </si>
 </sst>
 </file>
@@ -289,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,14 +383,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1256,7 +1256,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -1507,7 +1507,15 @@
       <c r="C9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="D9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="30">
+        <v>5</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="25" t="s">
         <v>13</v>
       </c>
@@ -1517,8 +1525,16 @@
       <c r="I9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
+      <c r="J9" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="34"/>
+      <c r="M9" s="25" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4651FD-BAE9-4674-91B3-46FD4E1F27C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E0A55-63FB-4DD3-96A6-EED1EF78AE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>S. No</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Contest, Inspite today's good!</t>
+  </si>
+  <si>
+    <t>May.12.2022</t>
+  </si>
+  <si>
+    <t>12:00-08:30AM</t>
   </si>
 </sst>
 </file>
@@ -292,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,6 +394,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,10 +1262,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -1536,6 +1545,22 @@
         <v>44</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="B11" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A13" s="36">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E0A55-63FB-4DD3-96A6-EED1EF78AE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E75AE8-40A6-45AA-A073-3963E22F83FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>S. No</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Today's CF Contest.</t>
   </si>
   <si>
-    <t>May.01.2022</t>
-  </si>
-  <si>
     <t>02:40-08:30AM</t>
   </si>
   <si>
@@ -150,19 +147,16 @@
     <t>YouTube</t>
   </si>
   <si>
-    <t>May.10.2022</t>
-  </si>
-  <si>
-    <t>Practice/3</t>
-  </si>
-  <si>
-    <t>Contest, Inspite today's good!</t>
-  </si>
-  <si>
-    <t>May.12.2022</t>
-  </si>
-  <si>
-    <t>12:00-08:30AM</t>
+    <t>June.15.2022</t>
+  </si>
+  <si>
+    <t>03:30-08:30AM</t>
+  </si>
+  <si>
+    <t>02:30-04:30PM</t>
+  </si>
+  <si>
+    <t>June.01.2022</t>
   </si>
 </sst>
 </file>
@@ -298,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,6 +390,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1262,10 +1259,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -1303,13 +1300,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>6</v>
@@ -1318,10 +1315,10 @@
         <v>7</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>8</v>
@@ -1350,7 +1347,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>14</v>
@@ -1359,7 +1356,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="22" t="s">
@@ -1389,7 +1386,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>14</v>
@@ -1398,7 +1395,7 @@
         <v>19</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="22" t="s">
@@ -1428,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>14</v>
@@ -1437,10 +1434,10 @@
         <v>24</v>
       </c>
       <c r="K4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>25</v>
@@ -1451,10 +1448,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>18</v>
@@ -1475,16 +1472,16 @@
         <v>14</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
@@ -1494,7 +1491,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B7" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
@@ -1511,55 +1508,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>10</v>
-      </c>
       <c r="D9" s="25" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E9" s="30">
-        <v>5</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>37</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="34"/>
-      <c r="M9" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="M9" s="25"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B11" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A13" s="36">
-        <v>6</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>46</v>
-      </c>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A10" s="36"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E75AE8-40A6-45AA-A073-3963E22F83FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2359829F-5EE7-4C76-9A5D-028390619AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>S. No</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Acedamics</t>
-  </si>
-  <si>
     <t>Sleep Hours</t>
   </si>
   <si>
@@ -157,6 +154,21 @@
   </si>
   <si>
     <t>June.01.2022</t>
+  </si>
+  <si>
+    <t>WebD</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Today was CC Contest!</t>
+  </si>
+  <si>
+    <t>June.16.2022</t>
+  </si>
+  <si>
+    <t>02:00-03-30PM</t>
   </si>
 </sst>
 </file>
@@ -292,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,9 +402,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -529,7 +538,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1. Before 13.06.2022</a:t>
+            <a:t>1. ^Before 13.06.2022</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="1400" baseline="0">
@@ -731,8 +740,107 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2. After 14.06.2022:</a:t>
-          </a:r>
+            <a:t>2. After 15.06.2022:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   a. 09:00AM-07:00PM           - Codeforces Problem Solving + (1.5hrs Nap)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   b. 07:00PM-12:00AM           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- DSA practice &amp; Learning (alternating days) +</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (0.5hrs Typing Practice)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   c. 12:00AM-03:0AM            - Web Devlopment</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -798,7 +906,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Except Exam hours</a:t>
+            <a:t>Except Exam Days</a:t>
           </a:r>
           <a:endParaRPr lang="en-IN" sz="1400">
             <a:effectLst/>
@@ -1262,7 +1370,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -1300,28 +1408,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="21" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
@@ -1329,38 +1437,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="3">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>15</v>
-      </c>
       <c r="K2" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -1368,38 +1476,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="6">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -1407,40 +1515,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="22" t="s">
         <v>24</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -1448,40 +1556,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
@@ -1491,7 +1599,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B7" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="28"/>
@@ -1508,31 +1616,54 @@
         <v>5</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="D9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" s="30">
-        <v>2</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="J9" s="31"/>
-      <c r="K9" s="35"/>
+      <c r="K9" s="35" t="s">
+        <v>35</v>
+      </c>
       <c r="L9" s="34"/>
-      <c r="M9" s="25"/>
+      <c r="M9" s="25" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A10" s="36"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="30"/>
+      <c r="A10" s="36">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2359829F-5EE7-4C76-9A5D-028390619AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA024DA-134B-48C7-B0F6-7A8621A06E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>S. No</t>
   </si>
@@ -147,9 +147,6 @@
     <t>June.15.2022</t>
   </si>
   <si>
-    <t>03:30-08:30AM</t>
-  </si>
-  <si>
     <t>02:30-04:30PM</t>
   </si>
   <si>
@@ -169,13 +166,19 @@
   </si>
   <si>
     <t>02:00-03-30PM</t>
+  </si>
+  <si>
+    <t>Today was CF Contest!</t>
+  </si>
+  <si>
+    <t>June.17.2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,12 +189,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
@@ -221,14 +218,6 @@
       <color theme="1"/>
       <name val="Gill Sans MT"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -304,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,92 +307,80 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,6 +692,18 @@
             </a:rPr>
             <a:t>03:00AM-08:30AM            -  Nap Hours</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1367,76 +1356,76 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16" style="18" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="26" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="13" max="13" width="35.33203125" style="25" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="6.44140625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16" style="15" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="30" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="31" customWidth="1"/>
+    <col min="13" max="13" width="35.33203125" style="20" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1460,22 +1449,22 @@
       <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1484,7 +1473,7 @@
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1499,14 +1488,14 @@
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="22" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1514,7 +1503,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1523,7 +1512,7 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1538,16 +1527,16 @@
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1555,118 +1544,155 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>43</v>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="27">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="27"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="20"/>
     </row>
-    <row r="9" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+    <row r="9" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
         <v>5</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="30">
+      <c r="E9" s="21">
         <v>3</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="25" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A10" s="36">
+      <c r="A10" s="27">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="21">
+        <v>5</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A11" s="27">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA024DA-134B-48C7-B0F6-7A8621A06E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CD7EFC-657A-4C28-8650-5F42AF2C4F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>S. No</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Night Sleep</t>
   </si>
   <si>
-    <t>Day Sleep</t>
-  </si>
-  <si>
     <t>Codeforces</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Typing P.</t>
   </si>
   <si>
-    <t>Reason</t>
-  </si>
-  <si>
     <t>03hrs</t>
   </si>
   <si>
@@ -172,6 +166,18 @@
   </si>
   <si>
     <t>June.17.2022</t>
+  </si>
+  <si>
+    <t>Toady was not that good.</t>
+  </si>
+  <si>
+    <t>June.18.2022</t>
+  </si>
+  <si>
+    <t>Cause</t>
+  </si>
+  <si>
+    <t>Power Nap</t>
   </si>
 </sst>
 </file>
@@ -1356,10 +1362,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -1391,34 +1397,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>6</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
@@ -1426,38 +1432,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -1465,38 +1471,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="5">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -1504,40 +1510,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="J4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -1545,40 +1551,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="27">
         <v>2</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.5">
@@ -1587,7 +1593,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B7" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
@@ -1604,36 +1610,36 @@
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="21">
         <v>3</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
@@ -1641,34 +1647,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="21">
         <v>5</v>
       </c>
       <c r="F10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>12</v>
-      </c>
       <c r="H10" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.5">
@@ -1676,22 +1682,51 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="21">
+        <v>3</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A12" s="27">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>6</v>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CD7EFC-657A-4C28-8650-5F42AF2C4F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF02741-EB2D-4D3D-9827-D1DED1FC8FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>S. No</t>
   </si>
@@ -63,9 +63,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>6.5hrs</t>
-  </si>
-  <si>
     <t>Today was good.</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>03:00-04:30PM</t>
   </si>
   <si>
-    <t>07hrs</t>
-  </si>
-  <si>
     <t>Happy with CF Prob. Count.</t>
   </si>
   <si>
@@ -87,12 +81,6 @@
     <t>02:30-08:30AM</t>
   </si>
   <si>
-    <t>NIL</t>
-  </si>
-  <si>
-    <t>7.5hrs</t>
-  </si>
-  <si>
     <t>Today's CF Contest.</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>Today's CC Contest.</t>
   </si>
   <si>
-    <t>7.4hrs</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -178,6 +163,12 @@
   </si>
   <si>
     <t>Power Nap</t>
+  </si>
+  <si>
+    <t>3+2</t>
+  </si>
+  <si>
+    <t>Today was good!</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1353,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -1373,20 +1364,19 @@
     <col min="1" max="1" width="6.44140625" style="27" customWidth="1"/>
     <col min="2" max="2" width="18.109375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="15" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="29" customWidth="1"/>
     <col min="6" max="6" width="16" style="15" customWidth="1"/>
     <col min="7" max="7" width="22.21875" style="15" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="30" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="31" customWidth="1"/>
-    <col min="13" max="13" width="35.33203125" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="32"/>
+    <col min="10" max="10" width="11.88671875" style="30" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="31" customWidth="1"/>
+    <col min="12" max="12" width="35.33203125" style="20" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1397,37 +1387,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1450,34 +1437,31 @@
         <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="17" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5">
         <v>5</v>
@@ -1489,37 +1473,34 @@
         <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="17" t="s">
-        <v>18</v>
+      <c r="J3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
@@ -1528,36 +1509,33 @@
         <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>23</v>
+      <c r="J4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="27">
         <v>2</v>
@@ -1566,34 +1544,31 @@
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="18" t="s">
-        <v>25</v>
+      <c r="L5" s="18" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="D6" s="6"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="B7" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
@@ -1601,22 +1576,21 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="20"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="20"/>
     </row>
-    <row r="9" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E9" s="21">
         <v>3</v>
@@ -1625,38 +1599,37 @@
         <v>10</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="20" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="25"/>
+      <c r="L9" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="27">
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="21">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>10</v>
@@ -1665,30 +1638,30 @@
         <v>11</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="27">
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="21">
         <v>3</v>
@@ -1700,33 +1673,54 @@
         <v>11</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>5</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="27">
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="D12" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="E12" s="21">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF02741-EB2D-4D3D-9827-D1DED1FC8FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3818FB11-0E05-493C-8E03-9005E401034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>S. No</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Today was good!</t>
+  </si>
+  <si>
+    <t>June.19.2022</t>
+  </si>
+  <si>
+    <t>2+2</t>
   </si>
 </sst>
 </file>
@@ -1353,10 +1359,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -1723,6 +1729,26 @@
         <v>48</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A13" s="27">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3818FB11-0E05-493C-8E03-9005E401034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD0DD09-B1D8-4991-A163-E6343B72BBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>S. No</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>2+2</t>
+  </si>
+  <si>
+    <t>june.21.2022</t>
+  </si>
+  <si>
+    <t>Not followed</t>
+  </si>
+  <si>
+    <t>Partially followed</t>
+  </si>
+  <si>
+    <t>june.20.2022</t>
   </si>
 </sst>
 </file>
@@ -1359,10 +1371,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -1737,17 +1749,38 @@
         <v>49</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D13" s="20"/>
       <c r="E13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>5</v>
-      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A14" s="27">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A15" s="27">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD0DD09-B1D8-4991-A163-E6343B72BBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE5312-92AC-414E-B468-62016B5CAB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>S. No</t>
   </si>
@@ -177,16 +177,13 @@
     <t>2+2</t>
   </si>
   <si>
-    <t>june.21.2022</t>
-  </si>
-  <si>
-    <t>Not followed</t>
-  </si>
-  <si>
-    <t>Partially followed</t>
-  </si>
-  <si>
-    <t>june.20.2022</t>
+    <t>June.24.2022</t>
+  </si>
+  <si>
+    <t>Today was Not Good</t>
+  </si>
+  <si>
+    <t>Journey: Home</t>
   </si>
 </sst>
 </file>
@@ -1371,10 +1368,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -1748,39 +1745,44 @@
       <c r="B13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="21" t="s">
         <v>50</v>
       </c>
+      <c r="F13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="J13" s="26"/>
       <c r="K13" s="20"/>
+      <c r="L13" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A14" s="27">
-        <v>10</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="27">
-        <v>11</v>
-      </c>
       <c r="B15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="27">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE5312-92AC-414E-B468-62016B5CAB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D49D0E-CFB8-4998-A0DF-562A49F8EFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>S. No</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>Journey: Home</t>
+  </si>
+  <si>
+    <t>Almost good</t>
+  </si>
+  <si>
+    <t>June.25.2022</t>
+  </si>
+  <si>
+    <t>02:00-08:30AM</t>
+  </si>
+  <si>
+    <t>NF</t>
   </si>
 </sst>
 </file>
@@ -1368,10 +1380,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -1745,7 +1757,12 @@
       <c r="B13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="C13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="E13" s="21" t="s">
         <v>50</v>
       </c>
@@ -1776,12 +1793,47 @@
       </c>
       <c r="J15" s="26"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="27">
         <v>10</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>51</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="21">
+        <v>2</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A18" s="27">
+        <v>11</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D49D0E-CFB8-4998-A0DF-562A49F8EFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731B6F46-383F-4E84-A160-2BD394DC40F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="2" r:id="rId1"/>
-    <sheet name="Followed" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tasks" sheetId="4" r:id="rId2"/>
+    <sheet name="Followed" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
   <si>
     <t>S. No</t>
   </si>
@@ -186,9 +187,6 @@
     <t>Journey: Home</t>
   </si>
   <si>
-    <t>Almost good</t>
-  </si>
-  <si>
     <t>June.25.2022</t>
   </si>
   <si>
@@ -196,6 +194,18 @@
   </si>
   <si>
     <t>NF</t>
+  </si>
+  <si>
+    <t>2+1</t>
+  </si>
+  <si>
+    <t>Practice/0</t>
+  </si>
+  <si>
+    <t>Almost good: AT HOME &lt;3</t>
+  </si>
+  <si>
+    <t>Ahh, Today's good.</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1024,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="0070C0"/>
+          <a:srgbClr val="FFC000"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -1050,23 +1060,564 @@
               </a:solidFill>
               <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>                                                                                                                Jai</a:t>
+            <a:t>                                                                                                                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Jai</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="1600" baseline="0">
               <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Shree Krishna</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E26FDED-1C68-407D-AD80-D315B9926A91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="15240"/>
+          <a:ext cx="16802100" cy="11163300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. DSA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Binary Search</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     2. Stack</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     3. Queue</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     4. Heap</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     5. Hashing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     6. BST</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     7. Graphs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Weak Domains</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    1. Bitwise Opeartions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    2. Recurrsion</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C. WebD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    1. HTML</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    2. CSS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    3. Javascript</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    4. Backend</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006137FB-9C20-42D4-892B-EFF3334DE456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="16809720" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1600">
+              <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> Shree Krishna</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
+            <a:t>                                                                                                              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>TASKS</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1376,14 +1927,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19272AE-33F6-434B-AC2C-4840700893D4}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -1758,10 +2326,10 @@
         <v>49</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>50</v>
@@ -1801,10 +2369,10 @@
         <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="21">
         <v>2</v>
@@ -1813,7 +2381,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>12</v>
@@ -1822,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.5">
@@ -1830,11 +2398,35 @@
         <v>11</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="D18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="F19" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1842,14 +2434,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731B6F46-383F-4E84-A160-2BD394DC40F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0FCEE1-A0A5-4650-8CC6-C06BB16BB7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>S. No</t>
   </si>
@@ -206,6 +206,27 @@
   </si>
   <si>
     <t>Ahh, Today's good.</t>
+  </si>
+  <si>
+    <t>June.26.2022</t>
+  </si>
+  <si>
+    <t>11:30-01:00PM</t>
+  </si>
+  <si>
+    <t>Stacks</t>
+  </si>
+  <si>
+    <t>Practice/3</t>
+  </si>
+  <si>
+    <t>Created some cool things with CSS.</t>
+  </si>
+  <si>
+    <t>June.27.2022</t>
+  </si>
+  <si>
+    <t>03:00-09:15AM</t>
   </si>
 </sst>
 </file>
@@ -1329,6 +1350,21 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>     7. Graphs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     8. DP</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1933,7 +1969,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -1948,10 +1984,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -2346,7 +2382,9 @@
       <c r="I13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="26"/>
+      <c r="J13" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20" t="s">
         <v>52</v>
@@ -2421,12 +2459,52 @@
       <c r="I18" s="20" t="s">
         <v>37</v>
       </c>
+      <c r="J18" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="L18" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F19" s="20"/>
+      <c r="B19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="21">
+        <v>2</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0FCEE1-A0A5-4650-8CC6-C06BB16BB7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EBEF30-F2B6-41EB-A018-D0576756BBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>S. No</t>
   </si>
@@ -227,6 +227,21 @@
   </si>
   <si>
     <t>03:00-09:15AM</t>
+  </si>
+  <si>
+    <t>Family+YT</t>
+  </si>
+  <si>
+    <t>Exploring with CSS &amp; Glasso.</t>
+  </si>
+  <si>
+    <t>June.28.2022</t>
+  </si>
+  <si>
+    <t>03:00-09:20AM</t>
+  </si>
+  <si>
+    <t>11:30-01:30PM</t>
   </si>
 </sst>
 </file>
@@ -1969,7 +1984,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -1984,10 +1999,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -2504,6 +2519,47 @@
       </c>
       <c r="C20" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EBEF30-F2B6-41EB-A018-D0576756BBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5442AADE-6F83-4632-A8A9-5A33BE962BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
   <si>
     <t>S. No</t>
   </si>
@@ -242,6 +242,21 @@
   </si>
   <si>
     <t>11:30-01:30PM</t>
+  </si>
+  <si>
+    <t>June.29.2022</t>
+  </si>
+  <si>
+    <t>03:00-10:00AM</t>
+  </si>
+  <si>
+    <t>Good It was.</t>
+  </si>
+  <si>
+    <t>Slight Good.</t>
+  </si>
+  <si>
+    <t>July.01.2022</t>
   </si>
 </sst>
 </file>
@@ -1999,10 +2014,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -2482,6 +2497,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A19" s="27">
+        <v>12</v>
+      </c>
       <c r="B19" s="14" t="s">
         <v>61</v>
       </c>
@@ -2514,6 +2532,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A20" s="27">
+        <v>13</v>
+      </c>
       <c r="B20" s="14" t="s">
         <v>66</v>
       </c>
@@ -2549,6 +2570,9 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A21" s="27">
+        <v>14</v>
+      </c>
       <c r="B21" s="14" t="s">
         <v>70</v>
       </c>
@@ -2560,6 +2584,67 @@
       </c>
       <c r="E21" s="21">
         <v>1</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A22" s="27">
+        <v>15</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="21">
+        <v>2</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A24" s="27">
+        <v>17</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5442AADE-6F83-4632-A8A9-5A33BE962BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B79B67-8215-4CD1-AD19-246FDFBC73C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
   <si>
     <t>S. No</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>July.01.2022</t>
+  </si>
+  <si>
+    <t>Not that Good.</t>
+  </si>
+  <si>
+    <t>july.02.2022</t>
+  </si>
+  <si>
+    <t>03:00-09:30AM</t>
   </si>
 </sst>
 </file>
@@ -1289,22 +1298,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> Binary Search</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     2. Stack</a:t>
+            <a:t> Binary Search :Done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     2. Stack :Continue</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1496,37 +1505,37 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    1. HTML</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    2. CSS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    3. Javascript</a:t>
+            <a:t>    1. HTML :Done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    2. CSS :Done</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    3. Javascript :Continue</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2014,10 +2023,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -2645,6 +2654,38 @@
       </c>
       <c r="D24" s="20" t="s">
         <v>56</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A25" s="27">
+        <v>18</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Holiday.xlsx
+++ b/Holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\Hare Krishna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B79B67-8215-4CD1-AD19-246FDFBC73C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD712E0-8269-45BE-8F74-1BE53334384B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="81">
   <si>
     <t>S. No</t>
   </si>
@@ -2023,10 +2023,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.5"/>
@@ -2684,9 +2684,24 @@
       <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="D25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="G26" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
